--- a/SO SACH - LA/SO SACH/2016/THỰC TẾ/152 - 155 - 15.xlsx
+++ b/SO SACH - LA/SO SACH/2016/THỰC TẾ/152 - 155 - 15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15330" windowHeight="4425" tabRatio="716"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15330" windowHeight="4425" tabRatio="716" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NXT" sheetId="70" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="288">
   <si>
     <t>SỔ CHI TIẾT VẬT LIỆU, DỤNG CỤ (SẢN PHẨM, HÀNG HÓA)</t>
   </si>
@@ -940,6 +940,9 @@
   </si>
   <si>
     <t>Phát</t>
+  </si>
+  <si>
+    <t>quà tết</t>
   </si>
 </sst>
 </file>
@@ -2956,20 +2959,39 @@
     <xf numFmtId="164" fontId="35" fillId="0" borderId="12" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="32" fillId="29" borderId="18" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="32" fillId="29" borderId="18" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="53" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="54" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="29" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="32" fillId="29" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="54" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="35" fillId="29" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="43" fontId="35" fillId="21" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="35" fillId="21" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="35" fillId="21" borderId="26" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="35" fillId="21" borderId="25" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="40" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2989,9 +3011,17 @@
     <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="32" fillId="0" borderId="0" xfId="29" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
+    <xf numFmtId="164" fontId="35" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="35" fillId="21" borderId="2" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="35" fillId="21" borderId="26" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="35" fillId="21" borderId="25" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3032,13 +3062,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="30" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="55" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3052,12 +3088,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="32" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -3141,33 +3171,6 @@
     <xf numFmtId="0" fontId="33" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="32" fillId="29" borderId="18" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="32" fillId="29" borderId="18" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="53" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="18" xfId="54" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="29" borderId="18" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="32" fillId="29" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" xfId="54" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="35" fillId="29" borderId="18" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="76">
@@ -3728,10 +3731,10 @@
   </sheetPr>
   <dimension ref="A1:M194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3761,13 +3764,13 @@
       <c r="E1" s="216"/>
       <c r="F1" s="249"/>
       <c r="G1" s="249"/>
-      <c r="H1" s="298" t="s">
+      <c r="H1" s="306" t="s">
         <v>96</v>
       </c>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="298"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
       <c r="M1" s="250"/>
     </row>
     <row r="2" spans="1:13" s="248" customFormat="1" ht="14.25" customHeight="1">
@@ -3779,13 +3782,13 @@
       <c r="E2" s="217"/>
       <c r="F2" s="217"/>
       <c r="G2" s="217"/>
-      <c r="H2" s="299" t="s">
+      <c r="H2" s="307" t="s">
         <v>77</v>
       </c>
-      <c r="I2" s="299"/>
-      <c r="J2" s="299"/>
-      <c r="K2" s="299"/>
-      <c r="L2" s="299"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
       <c r="M2" s="252"/>
     </row>
     <row r="3" spans="1:13" s="248" customFormat="1" ht="14.25" customHeight="1">
@@ -3795,124 +3798,124 @@
       <c r="E3" s="217"/>
       <c r="F3" s="217"/>
       <c r="G3" s="217"/>
-      <c r="H3" s="300" t="s">
+      <c r="H3" s="308" t="s">
         <v>97</v>
       </c>
-      <c r="I3" s="300"/>
-      <c r="J3" s="300"/>
-      <c r="K3" s="300"/>
-      <c r="L3" s="300"/>
+      <c r="I3" s="308"/>
+      <c r="J3" s="308"/>
+      <c r="K3" s="308"/>
+      <c r="L3" s="308"/>
       <c r="M3" s="253"/>
     </row>
     <row r="4" spans="1:13" s="249" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B4" s="302" t="s">
+      <c r="B4" s="310" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="302"/>
-      <c r="D4" s="302"/>
-      <c r="E4" s="302"/>
-      <c r="F4" s="302"/>
-      <c r="G4" s="302"/>
-      <c r="H4" s="302"/>
-      <c r="I4" s="302"/>
-      <c r="J4" s="302"/>
-      <c r="K4" s="302"/>
-      <c r="L4" s="302"/>
+      <c r="C4" s="310"/>
+      <c r="D4" s="310"/>
+      <c r="E4" s="310"/>
+      <c r="F4" s="310"/>
+      <c r="G4" s="310"/>
+      <c r="H4" s="310"/>
+      <c r="I4" s="310"/>
+      <c r="J4" s="310"/>
+      <c r="K4" s="310"/>
+      <c r="L4" s="310"/>
       <c r="M4" s="254"/>
     </row>
     <row r="5" spans="1:13" s="249" customFormat="1" ht="15" customHeight="1">
-      <c r="B5" s="303" t="s">
+      <c r="B5" s="311" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
-      <c r="I5" s="303"/>
-      <c r="J5" s="303"/>
-      <c r="K5" s="303"/>
-      <c r="L5" s="303"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
+      <c r="I5" s="311"/>
+      <c r="J5" s="311"/>
+      <c r="K5" s="311"/>
+      <c r="L5" s="311"/>
       <c r="M5" s="254"/>
     </row>
     <row r="6" spans="1:13" s="249" customFormat="1" ht="12.75" hidden="1" customHeight="1">
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="311" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
-      <c r="I6" s="303"/>
-      <c r="J6" s="303"/>
-      <c r="K6" s="303"/>
-      <c r="L6" s="303"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="311"/>
+      <c r="I6" s="311"/>
+      <c r="J6" s="311"/>
+      <c r="K6" s="311"/>
+      <c r="L6" s="311"/>
       <c r="M6" s="254"/>
     </row>
     <row r="7" spans="1:13" s="255" customFormat="1" ht="24" hidden="1" customHeight="1">
       <c r="B7" s="291"/>
-      <c r="C7" s="301" t="s">
+      <c r="C7" s="309" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
-      <c r="I7" s="301"/>
-      <c r="J7" s="301"/>
-      <c r="K7" s="301"/>
-      <c r="L7" s="301"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
       <c r="M7" s="256"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B8" s="293" t="s">
+      <c r="B8" s="312" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="295" t="s">
+      <c r="C8" s="313" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="296" t="s">
+      <c r="D8" s="314" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="294" t="s">
+      <c r="E8" s="305" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="294"/>
-      <c r="G8" s="294"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
+      <c r="F8" s="305"/>
+      <c r="G8" s="305"/>
+      <c r="H8" s="305"/>
+      <c r="I8" s="305"/>
+      <c r="J8" s="305"/>
+      <c r="K8" s="305"/>
+      <c r="L8" s="305"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B9" s="293"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="297"/>
-      <c r="E9" s="294" t="s">
+      <c r="B9" s="312"/>
+      <c r="C9" s="313"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="305" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="294"/>
-      <c r="G9" s="294" t="s">
+      <c r="F9" s="305"/>
+      <c r="G9" s="305" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="294"/>
-      <c r="I9" s="294" t="s">
+      <c r="H9" s="305"/>
+      <c r="I9" s="305" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="294"/>
-      <c r="K9" s="294" t="s">
+      <c r="J9" s="305"/>
+      <c r="K9" s="305" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="294"/>
+      <c r="L9" s="305"/>
     </row>
     <row r="10" spans="1:13" ht="20.25" hidden="1" customHeight="1">
-      <c r="B10" s="293"/>
-      <c r="C10" s="295"/>
+      <c r="B10" s="312"/>
+      <c r="C10" s="313"/>
       <c r="D10" s="258"/>
       <c r="E10" s="218" t="s">
         <v>46</v>
@@ -4002,7 +4005,7 @@
       </c>
       <c r="I12" s="219">
         <f t="shared" ref="I12:I87" si="1">SUMIF(DSNX1,$C12,DSNX3)</f>
-        <v>57.78</v>
+        <v>176.53</v>
       </c>
       <c r="J12" s="219">
         <f t="shared" ref="J12:J87" si="2">SUMIF(DSNX1,$C12,DSNX4)</f>
@@ -4010,7 +4013,7 @@
       </c>
       <c r="K12" s="219">
         <f t="shared" ref="K12:K40" si="3">E12+G12-I12</f>
-        <v>292.22000000000003</v>
+        <v>173.47</v>
       </c>
       <c r="L12" s="219">
         <f t="shared" ref="L12:L40" si="4">F12+H12-J12</f>
@@ -4050,7 +4053,7 @@
       </c>
       <c r="I13" s="219">
         <f t="shared" si="1"/>
-        <v>112</v>
+        <v>302</v>
       </c>
       <c r="J13" s="219">
         <f t="shared" si="2"/>
@@ -4058,7 +4061,7 @@
       </c>
       <c r="K13" s="220">
         <f t="shared" si="3"/>
-        <v>1561</v>
+        <v>1371</v>
       </c>
       <c r="L13" s="220">
         <f t="shared" si="4"/>
@@ -4090,7 +4093,7 @@
       <c r="F14" s="220"/>
       <c r="G14" s="219">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H14" s="219">
         <f t="shared" si="0"/>
@@ -4098,7 +4101,7 @@
       </c>
       <c r="I14" s="219">
         <f t="shared" si="1"/>
-        <v>327.8</v>
+        <v>874.05</v>
       </c>
       <c r="J14" s="219">
         <f t="shared" si="2"/>
@@ -4106,7 +4109,7 @@
       </c>
       <c r="K14" s="220">
         <f t="shared" si="3"/>
-        <v>642.20000000000005</v>
+        <v>595.95000000000005</v>
       </c>
       <c r="L14" s="220">
         <f t="shared" si="4"/>
@@ -4146,7 +4149,7 @@
       </c>
       <c r="I15" s="219">
         <f t="shared" si="1"/>
-        <v>8.68</v>
+        <v>22.93</v>
       </c>
       <c r="J15" s="219">
         <f t="shared" si="2"/>
@@ -4154,7 +4157,7 @@
       </c>
       <c r="K15" s="220">
         <f t="shared" si="3"/>
-        <v>1029.32</v>
+        <v>1015.07</v>
       </c>
       <c r="L15" s="220">
         <f t="shared" si="4"/>
@@ -4234,7 +4237,7 @@
       <c r="F17" s="221"/>
       <c r="G17" s="263">
         <f t="shared" si="6"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="263">
         <f t="shared" si="0"/>
@@ -4242,7 +4245,7 @@
       </c>
       <c r="I17" s="263">
         <f t="shared" si="1"/>
-        <v>336</v>
+        <v>906</v>
       </c>
       <c r="J17" s="263">
         <f t="shared" si="2"/>
@@ -4250,7 +4253,7 @@
       </c>
       <c r="K17" s="221">
         <f t="shared" ref="K17" si="9">E17+G17-I17</f>
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="L17" s="221">
         <f t="shared" ref="L17" si="10">F17+H17-J17</f>
@@ -4672,7 +4675,7 @@
       </c>
       <c r="I26" s="263">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>7.55</v>
       </c>
       <c r="J26" s="263">
         <f t="shared" si="2"/>
@@ -4680,7 +4683,7 @@
       </c>
       <c r="K26" s="221">
         <f t="shared" ref="K26:K28" si="33">E26+G26-I26</f>
-        <v>22.7</v>
+        <v>17.95</v>
       </c>
       <c r="L26" s="221"/>
     </row>
@@ -4711,7 +4714,7 @@
       </c>
       <c r="I27" s="263">
         <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>11.324999999999999</v>
       </c>
       <c r="J27" s="263">
         <f t="shared" si="2"/>
@@ -4719,7 +4722,7 @@
       </c>
       <c r="K27" s="221">
         <f t="shared" si="33"/>
-        <v>16.400000000000002</v>
+        <v>9.2750000000000021</v>
       </c>
       <c r="L27" s="221"/>
     </row>
@@ -4791,7 +4794,7 @@
       </c>
       <c r="I29" s="263">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="J29" s="263">
         <f t="shared" si="2"/>
@@ -4799,7 +4802,7 @@
       </c>
       <c r="K29" s="221">
         <f t="shared" ref="K29" si="36">E29+G29-I29</f>
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="L29" s="221">
         <f t="shared" ref="L29" si="37">F29+H29-J29</f>
@@ -4887,7 +4890,7 @@
       </c>
       <c r="I31" s="263">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>23.5</v>
       </c>
       <c r="J31" s="263">
         <f t="shared" si="2"/>
@@ -4895,7 +4898,7 @@
       </c>
       <c r="K31" s="221">
         <f t="shared" ref="K31" si="39">E31+G31-I31</f>
-        <v>113</v>
+        <v>100.5</v>
       </c>
       <c r="L31" s="221">
         <f t="shared" ref="L31" si="40">F31+H31-J31</f>
@@ -8415,7 +8418,7 @@
       </c>
       <c r="I112" s="219">
         <f t="shared" si="74"/>
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="J112" s="219">
         <f t="shared" si="75"/>
@@ -8423,7 +8426,7 @@
       </c>
       <c r="K112" s="220">
         <f t="shared" si="83"/>
-        <v>845</v>
+        <v>740</v>
       </c>
       <c r="L112" s="220">
         <f t="shared" si="84"/>
@@ -9419,7 +9422,7 @@
       </c>
       <c r="G135" s="219">
         <f t="shared" si="72"/>
-        <v>1029</v>
+        <v>1586</v>
       </c>
       <c r="H135" s="219">
         <f t="shared" si="85"/>
@@ -9435,7 +9438,7 @@
       </c>
       <c r="K135" s="220">
         <f t="shared" si="83"/>
-        <v>1167</v>
+        <v>1724</v>
       </c>
       <c r="L135" s="220">
         <f t="shared" si="84"/>
@@ -9683,7 +9686,7 @@
       </c>
       <c r="G141" s="219">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H141" s="219">
         <f t="shared" si="85"/>
@@ -9699,7 +9702,7 @@
       </c>
       <c r="K141" s="220">
         <f t="shared" si="83"/>
-        <v>16</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="L141" s="220">
         <f t="shared" si="84"/>
@@ -10351,7 +10354,7 @@
       </c>
       <c r="I156" s="219">
         <f t="shared" ref="I156:I187" si="87">SUMIF(DSNX1,$C156,DSNX3)</f>
-        <v>1114</v>
+        <v>3112</v>
       </c>
       <c r="J156" s="219">
         <f t="shared" ref="J156:J187" si="88">SUMIF(DSNX1,$C156,DSNX4)</f>
@@ -10359,7 +10362,7 @@
       </c>
       <c r="K156" s="220">
         <f t="shared" si="83"/>
-        <v>3115</v>
+        <v>1117</v>
       </c>
       <c r="L156" s="220">
         <f t="shared" si="84"/>
@@ -10387,7 +10390,7 @@
       </c>
       <c r="G157" s="219">
         <f t="shared" si="86"/>
-        <v>787</v>
+        <v>2041</v>
       </c>
       <c r="H157" s="219">
         <f t="shared" si="85"/>
@@ -10395,7 +10398,7 @@
       </c>
       <c r="I157" s="219">
         <f t="shared" si="87"/>
-        <v>648</v>
+        <v>1380</v>
       </c>
       <c r="J157" s="219">
         <f t="shared" si="88"/>
@@ -10403,7 +10406,7 @@
       </c>
       <c r="K157" s="220">
         <f t="shared" si="83"/>
-        <v>323</v>
+        <v>845</v>
       </c>
       <c r="L157" s="220">
         <f t="shared" si="84"/>
@@ -10431,7 +10434,7 @@
       </c>
       <c r="G158" s="219">
         <f t="shared" si="86"/>
-        <v>697</v>
+        <v>1373</v>
       </c>
       <c r="H158" s="219">
         <f t="shared" si="85"/>
@@ -10439,7 +10442,7 @@
       </c>
       <c r="I158" s="219">
         <f t="shared" si="87"/>
-        <v>370</v>
+        <v>718</v>
       </c>
       <c r="J158" s="219">
         <f t="shared" si="88"/>
@@ -10447,7 +10450,7 @@
       </c>
       <c r="K158" s="220">
         <f t="shared" si="83"/>
-        <v>5895</v>
+        <v>6223</v>
       </c>
       <c r="L158" s="220">
         <f t="shared" si="84"/>
@@ -10519,7 +10522,7 @@
       </c>
       <c r="G160" s="219">
         <f t="shared" si="86"/>
-        <v>240</v>
+        <v>336</v>
       </c>
       <c r="H160" s="219">
         <f t="shared" si="85"/>
@@ -10535,7 +10538,7 @@
       </c>
       <c r="K160" s="220">
         <f t="shared" si="83"/>
-        <v>1232</v>
+        <v>1328</v>
       </c>
       <c r="L160" s="220">
         <f t="shared" si="84"/>
@@ -10561,7 +10564,7 @@
       </c>
       <c r="G161" s="219">
         <f t="shared" si="86"/>
-        <v>1335</v>
+        <v>3575</v>
       </c>
       <c r="H161" s="219">
         <f t="shared" si="85"/>
@@ -10577,7 +10580,7 @@
       </c>
       <c r="K161" s="220">
         <f t="shared" ref="K161" si="92">E161+G161-I161</f>
-        <v>1335</v>
+        <v>3575</v>
       </c>
       <c r="L161" s="220">
         <f t="shared" ref="L161" si="93">F161+H161-J161</f>
@@ -11859,11 +11862,6 @@
     <sortCondition ref="C33:C52"/>
   </sortState>
   <mergeCells count="21">
-    <mergeCell ref="F194:H194"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="J194:L194"/>
-    <mergeCell ref="K9:L9"/>
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="C192:E192"/>
     <mergeCell ref="F193:H193"/>
@@ -11880,6 +11878,11 @@
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F194:H194"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J194:L194"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.71" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -12034,34 +12037,34 @@
     </row>
     <row r="13" spans="1:16" s="127" customFormat="1" ht="2.25" customHeight="1"/>
     <row r="14" spans="1:16" s="127" customFormat="1" ht="12.75">
-      <c r="A14" s="305" t="s">
+      <c r="A14" s="316" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="305" t="s">
+      <c r="B14" s="316" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="305" t="s">
+      <c r="C14" s="316" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="305" t="s">
+      <c r="D14" s="316" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="306" t="s">
+      <c r="E14" s="317" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="306"/>
-      <c r="G14" s="305" t="s">
+      <c r="F14" s="317"/>
+      <c r="G14" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="305" t="s">
+      <c r="H14" s="316" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="127" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="306"/>
-      <c r="B15" s="306"/>
-      <c r="C15" s="306"/>
-      <c r="D15" s="306"/>
+      <c r="A15" s="317"/>
+      <c r="B15" s="317"/>
+      <c r="C15" s="317"/>
+      <c r="D15" s="317"/>
       <c r="E15" s="126" t="s">
         <v>81</v>
       </c>
@@ -12069,8 +12072,8 @@
         <f>IF(LEFT($D$7,1)="N","Thực nhập","Thực xuất")</f>
         <v>Thực xuất</v>
       </c>
-      <c r="G15" s="306"/>
-      <c r="H15" s="306"/>
+      <c r="G15" s="317"/>
+      <c r="H15" s="317"/>
     </row>
     <row r="16" spans="1:16" s="134" customFormat="1" ht="8.25" customHeight="1">
       <c r="A16" s="133" t="s">
@@ -12295,10 +12298,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" s="127" customFormat="1" ht="12" customHeight="1">
-      <c r="A24" s="306" t="s">
+      <c r="A24" s="317" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="306"/>
+      <c r="B24" s="317"/>
       <c r="C24" s="141"/>
       <c r="D24" s="141"/>
       <c r="E24" s="142"/>
@@ -12409,10 +12412,10 @@
   </sheetPr>
   <dimension ref="A1:P1355"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C2" sqref="C2"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="M141" sqref="M141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.85546875" defaultRowHeight="15"/>
@@ -12479,57 +12482,57 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="319" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="311" t="s">
+      <c r="B2" s="322" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="309" t="s">
+      <c r="C2" s="323"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="320" t="s">
         <v>271</v>
       </c>
-      <c r="G2" s="309" t="s">
+      <c r="G2" s="320" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="307" t="s">
+      <c r="H2" s="318" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="307" t="s">
+      <c r="I2" s="318" t="s">
         <v>87</v>
       </c>
-      <c r="J2" s="307" t="s">
+      <c r="J2" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="308" t="s">
+      <c r="K2" s="319" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="308"/>
-      <c r="M2" s="308" t="s">
+      <c r="L2" s="319"/>
+      <c r="M2" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="308"/>
-      <c r="O2" s="307" t="s">
+      <c r="N2" s="319"/>
+      <c r="O2" s="318" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="30">
-      <c r="A3" s="308"/>
-      <c r="B3" s="314" t="s">
+      <c r="A3" s="319"/>
+      <c r="B3" s="325" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="315"/>
-      <c r="D3" s="316"/>
+      <c r="C3" s="326"/>
+      <c r="D3" s="327"/>
       <c r="E3" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="310"/>
-      <c r="G3" s="310"/>
-      <c r="H3" s="307"/>
-      <c r="I3" s="307"/>
-      <c r="J3" s="307"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="318"/>
+      <c r="I3" s="318"/>
+      <c r="J3" s="318"/>
       <c r="K3" s="242" t="s">
         <v>46</v>
       </c>
@@ -12542,7 +12545,7 @@
       <c r="N3" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="O3" s="307"/>
+      <c r="O3" s="318"/>
     </row>
     <row r="4" spans="1:15" s="7" customFormat="1">
       <c r="A4" s="9"/>
@@ -13544,38 +13547,38 @@
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" s="356" customFormat="1">
-      <c r="A33" s="347">
+    <row r="33" spans="1:15" s="302" customFormat="1">
+      <c r="A33" s="293">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="B33" s="348" t="str">
+      <c r="B33" s="294" t="str">
         <f>IF(AND(MONTH(E33)='IN-NX'!$J$5,'IN-NX'!$D$7=(D33&amp;"/"&amp;C33)),"x","")</f>
         <v/>
       </c>
-      <c r="C33" s="349"/>
-      <c r="D33" s="349"/>
-      <c r="E33" s="350">
+      <c r="C33" s="295"/>
+      <c r="D33" s="295"/>
+      <c r="E33" s="296">
         <v>42375</v>
       </c>
-      <c r="F33" s="357"/>
-      <c r="G33" s="351"/>
-      <c r="H33" s="352"/>
-      <c r="I33" s="353"/>
-      <c r="J33" s="354"/>
-      <c r="K33" s="355"/>
-      <c r="L33" s="354">
+      <c r="F33" s="303"/>
+      <c r="G33" s="297"/>
+      <c r="H33" s="298"/>
+      <c r="I33" s="299"/>
+      <c r="J33" s="300"/>
+      <c r="K33" s="301"/>
+      <c r="L33" s="300">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="355">
+      <c r="M33" s="301">
         <v>60</v>
       </c>
-      <c r="N33" s="354">
+      <c r="N33" s="300">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O33" s="354"/>
+      <c r="O33" s="300"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="21">
@@ -15391,9 +15394,9 @@
       <c r="O88" s="12"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="21" t="str">
+      <c r="A89" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B89" s="152" t="str">
         <f>IF(AND(MONTH(E89)='IN-NX'!$J$5,'IN-NX'!$D$7=(D89&amp;"/"&amp;C89)),"x","")</f>
@@ -15401,13 +15404,21 @@
       </c>
       <c r="C89" s="149"/>
       <c r="D89" s="149"/>
-      <c r="E89" s="45"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
+      <c r="E89" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F89" s="220" t="s">
+        <v>122</v>
+      </c>
+      <c r="G89" s="40" t="s">
+        <v>268</v>
+      </c>
       <c r="H89" s="153"/>
       <c r="I89" s="35"/>
       <c r="J89" s="12"/>
-      <c r="K89" s="244"/>
+      <c r="K89" s="244">
+        <v>95</v>
+      </c>
       <c r="L89" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15420,9 +15431,9 @@
       <c r="O89" s="12"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="21" t="str">
+      <c r="A90" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B90" s="152" t="str">
         <f>IF(AND(MONTH(E90)='IN-NX'!$J$5,'IN-NX'!$D$7=(D90&amp;"/"&amp;C90)),"x","")</f>
@@ -15430,13 +15441,19 @@
       </c>
       <c r="C90" s="149"/>
       <c r="D90" s="149"/>
-      <c r="E90" s="45"/>
-      <c r="F90" s="40"/>
+      <c r="E90" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F90" s="220" t="s">
+        <v>136</v>
+      </c>
       <c r="G90" s="16"/>
       <c r="H90" s="169"/>
       <c r="I90" s="35"/>
       <c r="J90" s="12"/>
-      <c r="K90" s="244"/>
+      <c r="K90" s="244">
+        <v>96</v>
+      </c>
       <c r="L90" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15449,9 +15466,9 @@
       <c r="O90" s="12"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="21" t="str">
+      <c r="A91" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B91" s="152" t="str">
         <f>IF(AND(MONTH(E91)='IN-NX'!$J$5,'IN-NX'!$D$7=(D91&amp;"/"&amp;C91)),"x","")</f>
@@ -15459,13 +15476,19 @@
       </c>
       <c r="C91" s="149"/>
       <c r="D91" s="149"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="40"/>
+      <c r="E91" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F91" s="220" t="s">
+        <v>273</v>
+      </c>
       <c r="G91" s="16"/>
       <c r="H91" s="169"/>
       <c r="I91" s="35"/>
       <c r="J91" s="12"/>
-      <c r="K91" s="244"/>
+      <c r="K91" s="244">
+        <v>450</v>
+      </c>
       <c r="L91" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15478,9 +15501,9 @@
       <c r="O91" s="12"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="21" t="str">
+      <c r="A92" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B92" s="152" t="str">
         <f>IF(AND(MONTH(E92)='IN-NX'!$J$5,'IN-NX'!$D$7=(D92&amp;"/"&amp;C92)),"x","")</f>
@@ -15488,13 +15511,19 @@
       </c>
       <c r="C92" s="149"/>
       <c r="D92" s="149"/>
-      <c r="E92" s="45"/>
-      <c r="F92" s="40"/>
+      <c r="E92" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="G92" s="16"/>
       <c r="H92" s="169"/>
       <c r="I92" s="35"/>
       <c r="J92" s="12"/>
-      <c r="K92" s="244"/>
+      <c r="K92" s="244">
+        <v>800</v>
+      </c>
       <c r="L92" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15507,9 +15536,9 @@
       <c r="O92" s="12"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="21" t="str">
+      <c r="A93" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B93" s="152" t="str">
         <f>IF(AND(MONTH(E93)='IN-NX'!$J$5,'IN-NX'!$D$7=(D93&amp;"/"&amp;C93)),"x","")</f>
@@ -15517,8 +15546,12 @@
       </c>
       <c r="C93" s="149"/>
       <c r="D93" s="149"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="40"/>
+      <c r="E93" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F93" s="220" t="s">
+        <v>136</v>
+      </c>
       <c r="G93" s="16"/>
       <c r="H93" s="169"/>
       <c r="I93" s="35"/>
@@ -15528,7 +15561,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M93" s="244"/>
+      <c r="M93" s="244">
+        <v>201</v>
+      </c>
       <c r="N93" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15536,9 +15571,9 @@
       <c r="O93" s="12"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="21" t="str">
+      <c r="A94" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B94" s="152" t="str">
         <f>IF(AND(MONTH(E94)='IN-NX'!$J$5,'IN-NX'!$D$7=(D94&amp;"/"&amp;C94)),"x","")</f>
@@ -15546,8 +15581,12 @@
       </c>
       <c r="C94" s="149"/>
       <c r="D94" s="149"/>
-      <c r="E94" s="45"/>
-      <c r="F94" s="40"/>
+      <c r="E94" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F94" s="220" t="s">
+        <v>135</v>
+      </c>
       <c r="G94" s="16"/>
       <c r="H94" s="169"/>
       <c r="I94" s="35"/>
@@ -15557,7 +15596,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M94" s="244"/>
+      <c r="M94" s="244">
+        <v>674</v>
+      </c>
       <c r="N94" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15565,9 +15606,9 @@
       <c r="O94" s="12"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="21" t="str">
+      <c r="A95" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B95" s="152" t="str">
         <f>IF(AND(MONTH(E95)='IN-NX'!$J$5,'IN-NX'!$D$7=(D95&amp;"/"&amp;C95)),"x","")</f>
@@ -15575,9 +15616,15 @@
       </c>
       <c r="C95" s="149"/>
       <c r="D95" s="149"/>
-      <c r="E95" s="45"/>
-      <c r="F95" s="40"/>
-      <c r="G95" s="16"/>
+      <c r="E95" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F95" s="220" t="s">
+        <v>174</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="H95" s="169"/>
       <c r="I95" s="35"/>
       <c r="J95" s="12"/>
@@ -15586,7 +15633,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M95" s="244"/>
+      <c r="M95" s="244">
+        <v>105</v>
+      </c>
       <c r="N95" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15594,9 +15643,9 @@
       <c r="O95" s="12"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="21" t="str">
+      <c r="A96" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B96" s="152" t="str">
         <f>IF(AND(MONTH(E96)='IN-NX'!$J$5,'IN-NX'!$D$7=(D96&amp;"/"&amp;C96)),"x","")</f>
@@ -15604,8 +15653,12 @@
       </c>
       <c r="C96" s="149"/>
       <c r="D96" s="149"/>
-      <c r="E96" s="45"/>
-      <c r="F96" s="40"/>
+      <c r="E96" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F96" s="221" t="s">
+        <v>207</v>
+      </c>
       <c r="G96" s="16"/>
       <c r="H96" s="169"/>
       <c r="I96" s="35"/>
@@ -15615,7 +15668,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M96" s="244"/>
+      <c r="M96" s="244">
+        <v>9</v>
+      </c>
       <c r="N96" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -15623,9 +15678,9 @@
       <c r="O96" s="12"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="21" t="str">
+      <c r="A97" s="21">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B97" s="152" t="str">
         <f>IF(AND(MONTH(E97)='IN-NX'!$J$5,'IN-NX'!$D$7=(D97&amp;"/"&amp;C97)),"x","")</f>
@@ -15633,8 +15688,12 @@
       </c>
       <c r="C97" s="149"/>
       <c r="D97" s="149"/>
-      <c r="E97" s="45"/>
-      <c r="F97" s="40"/>
+      <c r="E97" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F97" s="221" t="s">
+        <v>38</v>
+      </c>
       <c r="G97" s="16"/>
       <c r="H97" s="169"/>
       <c r="I97" s="35"/>
@@ -15644,7 +15703,9 @@
         <f t="shared" ref="L97:L152" si="9">ROUND(J97*K97,0)</f>
         <v>0</v>
       </c>
-      <c r="M97" s="244"/>
+      <c r="M97" s="244">
+        <v>6</v>
+      </c>
       <c r="N97" s="12">
         <f t="shared" ref="N97:N152" si="10">ROUND(J97*M97,0)</f>
         <v>0</v>
@@ -15652,9 +15713,9 @@
       <c r="O97" s="12"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="21" t="str">
+      <c r="A98" s="21">
         <f t="shared" ref="A98:A161" si="11">IF(E98&lt;&gt;"",MONTH(E98),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B98" s="152" t="str">
         <f>IF(AND(MONTH(E98)='IN-NX'!$J$5,'IN-NX'!$D$7=(D98&amp;"/"&amp;C98)),"x","")</f>
@@ -15662,13 +15723,21 @@
       </c>
       <c r="C98" s="149"/>
       <c r="D98" s="149"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="40"/>
-      <c r="G98" s="16"/>
+      <c r="E98" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F98" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="H98" s="169"/>
       <c r="I98" s="35"/>
       <c r="J98" s="12"/>
-      <c r="K98" s="244"/>
+      <c r="K98" s="244">
+        <v>500</v>
+      </c>
       <c r="L98" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -15681,9 +15750,9 @@
       <c r="O98" s="12"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="21" t="str">
+      <c r="A99" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B99" s="152" t="str">
         <f>IF(AND(MONTH(E99)='IN-NX'!$J$5,'IN-NX'!$D$7=(D99&amp;"/"&amp;C99)),"x","")</f>
@@ -15691,13 +15760,21 @@
       </c>
       <c r="C99" s="149"/>
       <c r="D99" s="149"/>
-      <c r="E99" s="45"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="16"/>
+      <c r="E99" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F99" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="H99" s="169"/>
       <c r="I99" s="35"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="244"/>
+      <c r="K99" s="244">
+        <v>500</v>
+      </c>
       <c r="L99" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -15710,9 +15787,9 @@
       <c r="O99" s="12"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="21" t="str">
+      <c r="A100" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B100" s="152" t="str">
         <f>IF(AND(MONTH(E100)='IN-NX'!$J$5,'IN-NX'!$D$7=(D100&amp;"/"&amp;C100)),"x","")</f>
@@ -15720,8 +15797,12 @@
       </c>
       <c r="C100" s="149"/>
       <c r="D100" s="149"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="40"/>
+      <c r="E100" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F100" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="G100" s="16"/>
       <c r="H100" s="169"/>
       <c r="I100" s="35"/>
@@ -15731,7 +15812,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M100" s="244"/>
+      <c r="M100" s="244">
+        <v>195.5</v>
+      </c>
       <c r="N100" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15739,9 +15822,9 @@
       <c r="O100" s="12"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="21" t="str">
+      <c r="A101" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B101" s="152" t="str">
         <f>IF(AND(MONTH(E101)='IN-NX'!$J$5,'IN-NX'!$D$7=(D101&amp;"/"&amp;C101)),"x","")</f>
@@ -15749,8 +15832,12 @@
       </c>
       <c r="C101" s="149"/>
       <c r="D101" s="149"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="40"/>
+      <c r="E101" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F101" s="219" t="s">
+        <v>39</v>
+      </c>
       <c r="G101" s="16"/>
       <c r="H101" s="169"/>
       <c r="I101" s="35"/>
@@ -15760,7 +15847,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M101" s="244"/>
+      <c r="M101" s="244">
+        <v>42.5</v>
+      </c>
       <c r="N101" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15768,9 +15857,9 @@
       <c r="O101" s="12"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="21" t="str">
+      <c r="A102" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B102" s="152" t="str">
         <f>IF(AND(MONTH(E102)='IN-NX'!$J$5,'IN-NX'!$D$7=(D102&amp;"/"&amp;C102)),"x","")</f>
@@ -15778,8 +15867,12 @@
       </c>
       <c r="C102" s="149"/>
       <c r="D102" s="149"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="40"/>
+      <c r="E102" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F102" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="G102" s="16"/>
       <c r="H102" s="169"/>
       <c r="I102" s="35"/>
@@ -15789,7 +15882,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M102" s="244"/>
+      <c r="M102" s="244">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="N102" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15797,9 +15892,9 @@
       <c r="O102" s="12"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="21" t="str">
+      <c r="A103" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B103" s="152" t="str">
         <f>IF(AND(MONTH(E103)='IN-NX'!$J$5,'IN-NX'!$D$7=(D103&amp;"/"&amp;C103)),"x","")</f>
@@ -15807,8 +15902,12 @@
       </c>
       <c r="C103" s="149"/>
       <c r="D103" s="149"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="40"/>
+      <c r="E103" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F103" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="G103" s="16"/>
       <c r="H103" s="169"/>
       <c r="I103" s="35"/>
@@ -15818,7 +15917,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M103" s="244"/>
+      <c r="M103" s="244">
+        <v>68</v>
+      </c>
       <c r="N103" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15826,9 +15927,9 @@
       <c r="O103" s="12"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="21" t="str">
+      <c r="A104" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B104" s="152" t="str">
         <f>IF(AND(MONTH(E104)='IN-NX'!$J$5,'IN-NX'!$D$7=(D104&amp;"/"&amp;C104)),"x","")</f>
@@ -15836,8 +15937,12 @@
       </c>
       <c r="C104" s="149"/>
       <c r="D104" s="149"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="40"/>
+      <c r="E104" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F104" s="40" t="s">
+        <v>197</v>
+      </c>
       <c r="G104" s="16"/>
       <c r="H104" s="169"/>
       <c r="I104" s="35"/>
@@ -15847,7 +15952,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M104" s="244"/>
+      <c r="M104" s="244">
+        <v>204</v>
+      </c>
       <c r="N104" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15855,9 +15962,9 @@
       <c r="O104" s="12"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="21" t="str">
+      <c r="A105" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B105" s="152" t="str">
         <f>IF(AND(MONTH(E105)='IN-NX'!$J$5,'IN-NX'!$D$7=(D105&amp;"/"&amp;C105)),"x","")</f>
@@ -15865,8 +15972,12 @@
       </c>
       <c r="C105" s="149"/>
       <c r="D105" s="149"/>
-      <c r="E105" s="45"/>
-      <c r="F105" s="40"/>
+      <c r="E105" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F105" s="40" t="s">
+        <v>283</v>
+      </c>
       <c r="G105" s="16"/>
       <c r="H105" s="169"/>
       <c r="I105" s="35"/>
@@ -15876,7 +15987,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M105" s="244"/>
+      <c r="M105" s="244">
+        <v>1.7</v>
+      </c>
       <c r="N105" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15884,9 +15997,9 @@
       <c r="O105" s="12"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="21" t="str">
+      <c r="A106" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B106" s="152" t="str">
         <f>IF(AND(MONTH(E106)='IN-NX'!$J$5,'IN-NX'!$D$7=(D106&amp;"/"&amp;C106)),"x","")</f>
@@ -15894,8 +16007,12 @@
       </c>
       <c r="C106" s="149"/>
       <c r="D106" s="149"/>
-      <c r="E106" s="45"/>
-      <c r="F106" s="40"/>
+      <c r="E106" s="45">
+        <v>42381</v>
+      </c>
+      <c r="F106" s="40" t="s">
+        <v>284</v>
+      </c>
       <c r="G106" s="16"/>
       <c r="H106" s="169"/>
       <c r="I106" s="35"/>
@@ -15905,7 +16022,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M106" s="244"/>
+      <c r="M106" s="244">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="N106" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15913,9 +16032,9 @@
       <c r="O106" s="12"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="21" t="str">
+      <c r="A107" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B107" s="152" t="str">
         <f>IF(AND(MONTH(E107)='IN-NX'!$J$5,'IN-NX'!$D$7=(D107&amp;"/"&amp;C107)),"x","")</f>
@@ -15923,8 +16042,12 @@
       </c>
       <c r="C107" s="149"/>
       <c r="D107" s="149"/>
-      <c r="E107" s="45"/>
-      <c r="F107" s="40"/>
+      <c r="E107" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F107" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="G107" s="16"/>
       <c r="H107" s="169"/>
       <c r="I107" s="35"/>
@@ -15934,7 +16057,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M107" s="244"/>
+      <c r="M107" s="244">
+        <v>155.25</v>
+      </c>
       <c r="N107" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15942,9 +16067,9 @@
       <c r="O107" s="12"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="21" t="str">
+      <c r="A108" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B108" s="152" t="str">
         <f>IF(AND(MONTH(E108)='IN-NX'!$J$5,'IN-NX'!$D$7=(D108&amp;"/"&amp;C108)),"x","")</f>
@@ -15952,8 +16077,12 @@
       </c>
       <c r="C108" s="149"/>
       <c r="D108" s="149"/>
-      <c r="E108" s="45"/>
-      <c r="F108" s="40"/>
+      <c r="E108" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F108" s="219" t="s">
+        <v>39</v>
+      </c>
       <c r="G108" s="16"/>
       <c r="H108" s="169"/>
       <c r="I108" s="35"/>
@@ -15963,7 +16092,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M108" s="244"/>
+      <c r="M108" s="244">
+        <v>33.75</v>
+      </c>
       <c r="N108" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -15971,9 +16102,9 @@
       <c r="O108" s="12"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="21" t="str">
+      <c r="A109" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B109" s="152" t="str">
         <f>IF(AND(MONTH(E109)='IN-NX'!$J$5,'IN-NX'!$D$7=(D109&amp;"/"&amp;C109)),"x","")</f>
@@ -15981,8 +16112,12 @@
       </c>
       <c r="C109" s="149"/>
       <c r="D109" s="149"/>
-      <c r="E109" s="45"/>
-      <c r="F109" s="40"/>
+      <c r="E109" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F109" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="G109" s="16"/>
       <c r="H109" s="169"/>
       <c r="I109" s="35"/>
@@ -15992,7 +16127,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M109" s="244"/>
+      <c r="M109" s="244">
+        <v>4.05</v>
+      </c>
       <c r="N109" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16000,9 +16137,9 @@
       <c r="O109" s="12"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="21" t="str">
+      <c r="A110" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B110" s="152" t="str">
         <f>IF(AND(MONTH(E110)='IN-NX'!$J$5,'IN-NX'!$D$7=(D110&amp;"/"&amp;C110)),"x","")</f>
@@ -16010,8 +16147,12 @@
       </c>
       <c r="C110" s="149"/>
       <c r="D110" s="149"/>
-      <c r="E110" s="45"/>
-      <c r="F110" s="40"/>
+      <c r="E110" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F110" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="G110" s="16"/>
       <c r="H110" s="169"/>
       <c r="I110" s="35"/>
@@ -16021,7 +16162,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M110" s="244"/>
+      <c r="M110" s="244">
+        <v>54</v>
+      </c>
       <c r="N110" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16029,9 +16172,9 @@
       <c r="O110" s="12"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="21" t="str">
+      <c r="A111" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B111" s="152" t="str">
         <f>IF(AND(MONTH(E111)='IN-NX'!$J$5,'IN-NX'!$D$7=(D111&amp;"/"&amp;C111)),"x","")</f>
@@ -16039,8 +16182,12 @@
       </c>
       <c r="C111" s="149"/>
       <c r="D111" s="149"/>
-      <c r="E111" s="45"/>
-      <c r="F111" s="40"/>
+      <c r="E111" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F111" s="40" t="s">
+        <v>197</v>
+      </c>
       <c r="G111" s="16"/>
       <c r="H111" s="169"/>
       <c r="I111" s="35"/>
@@ -16050,7 +16197,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M111" s="244"/>
+      <c r="M111" s="244">
+        <v>162</v>
+      </c>
       <c r="N111" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16058,9 +16207,9 @@
       <c r="O111" s="12"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="21" t="str">
+      <c r="A112" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B112" s="152" t="str">
         <f>IF(AND(MONTH(E112)='IN-NX'!$J$5,'IN-NX'!$D$7=(D112&amp;"/"&amp;C112)),"x","")</f>
@@ -16068,8 +16217,12 @@
       </c>
       <c r="C112" s="149"/>
       <c r="D112" s="149"/>
-      <c r="E112" s="45"/>
-      <c r="F112" s="40"/>
+      <c r="E112" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F112" s="40" t="s">
+        <v>283</v>
+      </c>
       <c r="G112" s="16"/>
       <c r="H112" s="169"/>
       <c r="I112" s="35"/>
@@ -16079,7 +16232,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M112" s="244"/>
+      <c r="M112" s="244">
+        <v>1.35</v>
+      </c>
       <c r="N112" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16087,9 +16242,9 @@
       <c r="O112" s="12"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="21" t="str">
+      <c r="A113" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B113" s="152" t="str">
         <f>IF(AND(MONTH(E113)='IN-NX'!$J$5,'IN-NX'!$D$7=(D113&amp;"/"&amp;C113)),"x","")</f>
@@ -16097,8 +16252,12 @@
       </c>
       <c r="C113" s="149"/>
       <c r="D113" s="149"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="40"/>
+      <c r="E113" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F113" s="40" t="s">
+        <v>284</v>
+      </c>
       <c r="G113" s="16"/>
       <c r="H113" s="169"/>
       <c r="I113" s="35"/>
@@ -16108,7 +16267,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M113" s="244"/>
+      <c r="M113" s="244">
+        <v>2.0249999999999999</v>
+      </c>
       <c r="N113" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16116,9 +16277,9 @@
       <c r="O113" s="12"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="21" t="str">
+      <c r="A114" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B114" s="152" t="str">
         <f>IF(AND(MONTH(E114)='IN-NX'!$J$5,'IN-NX'!$D$7=(D114&amp;"/"&amp;C114)),"x","")</f>
@@ -16126,13 +16287,19 @@
       </c>
       <c r="C114" s="149"/>
       <c r="D114" s="149"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="40"/>
+      <c r="E114" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F114" s="220" t="s">
+        <v>136</v>
+      </c>
       <c r="G114" s="16"/>
       <c r="H114" s="169"/>
       <c r="I114" s="35"/>
       <c r="J114" s="12"/>
-      <c r="K114" s="244"/>
+      <c r="K114" s="244">
+        <v>580</v>
+      </c>
       <c r="L114" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16145,9 +16312,9 @@
       <c r="O114" s="12"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="21" t="str">
+      <c r="A115" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B115" s="152" t="str">
         <f>IF(AND(MONTH(E115)='IN-NX'!$J$5,'IN-NX'!$D$7=(D115&amp;"/"&amp;C115)),"x","")</f>
@@ -16155,13 +16322,19 @@
       </c>
       <c r="C115" s="149"/>
       <c r="D115" s="149"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="40"/>
+      <c r="E115" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F115" s="220" t="s">
+        <v>122</v>
+      </c>
       <c r="G115" s="16"/>
       <c r="H115" s="169"/>
       <c r="I115" s="35"/>
       <c r="J115" s="12"/>
-      <c r="K115" s="244"/>
+      <c r="K115" s="244">
+        <v>155</v>
+      </c>
       <c r="L115" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16174,9 +16347,9 @@
       <c r="O115" s="12"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="21" t="str">
+      <c r="A116" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B116" s="152" t="str">
         <f>IF(AND(MONTH(E116)='IN-NX'!$J$5,'IN-NX'!$D$7=(D116&amp;"/"&amp;C116)),"x","")</f>
@@ -16184,13 +16357,19 @@
       </c>
       <c r="C116" s="149"/>
       <c r="D116" s="149"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="40"/>
+      <c r="E116" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F116" s="220" t="s">
+        <v>190</v>
+      </c>
       <c r="G116" s="16"/>
       <c r="H116" s="169"/>
       <c r="I116" s="35"/>
       <c r="J116" s="12"/>
-      <c r="K116" s="244"/>
+      <c r="K116" s="244">
+        <v>2.9</v>
+      </c>
       <c r="L116" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16203,9 +16382,9 @@
       <c r="O116" s="12"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="21" t="str">
+      <c r="A117" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B117" s="152" t="str">
         <f>IF(AND(MONTH(E117)='IN-NX'!$J$5,'IN-NX'!$D$7=(D117&amp;"/"&amp;C117)),"x","")</f>
@@ -16213,13 +16392,19 @@
       </c>
       <c r="C117" s="149"/>
       <c r="D117" s="149"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="40"/>
+      <c r="E117" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F117" s="220" t="s">
+        <v>138</v>
+      </c>
       <c r="G117" s="16"/>
       <c r="H117" s="169"/>
       <c r="I117" s="35"/>
       <c r="J117" s="12"/>
-      <c r="K117" s="244"/>
+      <c r="K117" s="244">
+        <v>96</v>
+      </c>
       <c r="L117" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16232,9 +16417,9 @@
       <c r="O117" s="12"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="21" t="str">
+      <c r="A118" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B118" s="152" t="str">
         <f>IF(AND(MONTH(E118)='IN-NX'!$J$5,'IN-NX'!$D$7=(D118&amp;"/"&amp;C118)),"x","")</f>
@@ -16242,13 +16427,19 @@
       </c>
       <c r="C118" s="149"/>
       <c r="D118" s="149"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="40"/>
+      <c r="E118" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F118" s="220" t="s">
+        <v>273</v>
+      </c>
       <c r="G118" s="16"/>
       <c r="H118" s="169"/>
       <c r="I118" s="35"/>
       <c r="J118" s="12"/>
-      <c r="K118" s="244"/>
+      <c r="K118" s="244">
+        <v>28</v>
+      </c>
       <c r="L118" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16261,9 +16452,9 @@
       <c r="O118" s="12"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="21" t="str">
+      <c r="A119" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B119" s="152" t="str">
         <f>IF(AND(MONTH(E119)='IN-NX'!$J$5,'IN-NX'!$D$7=(D119&amp;"/"&amp;C119)),"x","")</f>
@@ -16271,13 +16462,19 @@
       </c>
       <c r="C119" s="149"/>
       <c r="D119" s="149"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="40"/>
+      <c r="E119" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F119" s="220" t="s">
+        <v>273</v>
+      </c>
       <c r="G119" s="16"/>
       <c r="H119" s="169"/>
       <c r="I119" s="35"/>
       <c r="J119" s="12"/>
-      <c r="K119" s="244"/>
+      <c r="K119" s="244">
+        <v>251</v>
+      </c>
       <c r="L119" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16290,9 +16487,9 @@
       <c r="O119" s="12"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="21" t="str">
+      <c r="A120" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B120" s="152" t="str">
         <f>IF(AND(MONTH(E120)='IN-NX'!$J$5,'IN-NX'!$D$7=(D120&amp;"/"&amp;C120)),"x","")</f>
@@ -16300,13 +16497,19 @@
       </c>
       <c r="C120" s="149"/>
       <c r="D120" s="149"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="40"/>
+      <c r="E120" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F120" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="G120" s="16"/>
       <c r="H120" s="169"/>
       <c r="I120" s="35"/>
       <c r="J120" s="12"/>
-      <c r="K120" s="244"/>
+      <c r="K120" s="244">
+        <v>630</v>
+      </c>
       <c r="L120" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16319,9 +16522,9 @@
       <c r="O120" s="12"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="21" t="str">
+      <c r="A121" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B121" s="152" t="str">
         <f>IF(AND(MONTH(E121)='IN-NX'!$J$5,'IN-NX'!$D$7=(D121&amp;"/"&amp;C121)),"x","")</f>
@@ -16329,8 +16532,12 @@
       </c>
       <c r="C121" s="149"/>
       <c r="D121" s="149"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="40"/>
+      <c r="E121" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F121" s="220" t="s">
+        <v>136</v>
+      </c>
       <c r="G121" s="16"/>
       <c r="H121" s="169"/>
       <c r="I121" s="35"/>
@@ -16340,7 +16547,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M121" s="244"/>
+      <c r="M121" s="244">
+        <v>147</v>
+      </c>
       <c r="N121" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16348,9 +16557,9 @@
       <c r="O121" s="12"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="21" t="str">
+      <c r="A122" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B122" s="152" t="str">
         <f>IF(AND(MONTH(E122)='IN-NX'!$J$5,'IN-NX'!$D$7=(D122&amp;"/"&amp;C122)),"x","")</f>
@@ -16358,8 +16567,12 @@
       </c>
       <c r="C122" s="149"/>
       <c r="D122" s="149"/>
-      <c r="E122" s="45"/>
-      <c r="F122" s="40"/>
+      <c r="E122" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F122" s="220" t="s">
+        <v>135</v>
+      </c>
       <c r="G122" s="16"/>
       <c r="H122" s="169"/>
       <c r="I122" s="35"/>
@@ -16369,7 +16582,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M122" s="244"/>
+      <c r="M122" s="244">
+        <v>439</v>
+      </c>
       <c r="N122" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16377,9 +16592,9 @@
       <c r="O122" s="12"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="21" t="str">
+      <c r="A123" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B123" s="152" t="str">
         <f>IF(AND(MONTH(E123)='IN-NX'!$J$5,'IN-NX'!$D$7=(D123&amp;"/"&amp;C123)),"x","")</f>
@@ -16387,8 +16602,12 @@
       </c>
       <c r="C123" s="149"/>
       <c r="D123" s="149"/>
-      <c r="E123" s="45"/>
-      <c r="F123" s="40"/>
+      <c r="E123" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F123" s="220" t="s">
+        <v>273</v>
+      </c>
       <c r="G123" s="16"/>
       <c r="H123" s="169"/>
       <c r="I123" s="35"/>
@@ -16398,7 +16617,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M123" s="244"/>
+      <c r="M123" s="244">
+        <v>324</v>
+      </c>
       <c r="N123" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16406,9 +16627,9 @@
       <c r="O123" s="12"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="21" t="str">
+      <c r="A124" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B124" s="152" t="str">
         <f>IF(AND(MONTH(E124)='IN-NX'!$J$5,'IN-NX'!$D$7=(D124&amp;"/"&amp;C124)),"x","")</f>
@@ -16416,8 +16637,12 @@
       </c>
       <c r="C124" s="149"/>
       <c r="D124" s="149"/>
-      <c r="E124" s="45"/>
-      <c r="F124" s="40"/>
+      <c r="E124" s="45">
+        <v>42382</v>
+      </c>
+      <c r="F124" s="221" t="s">
+        <v>38</v>
+      </c>
       <c r="G124" s="16"/>
       <c r="H124" s="169"/>
       <c r="I124" s="35"/>
@@ -16427,7 +16652,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M124" s="244"/>
+      <c r="M124" s="244">
+        <v>6</v>
+      </c>
       <c r="N124" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16435,9 +16662,9 @@
       <c r="O124" s="12"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="21" t="str">
+      <c r="A125" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B125" s="152" t="str">
         <f>IF(AND(MONTH(E125)='IN-NX'!$J$5,'IN-NX'!$D$7=(D125&amp;"/"&amp;C125)),"x","")</f>
@@ -16445,13 +16672,19 @@
       </c>
       <c r="C125" s="149"/>
       <c r="D125" s="149"/>
-      <c r="E125" s="45"/>
-      <c r="F125" s="40"/>
+      <c r="E125" s="45">
+        <v>42383</v>
+      </c>
+      <c r="F125" s="220" t="s">
+        <v>122</v>
+      </c>
       <c r="G125" s="16"/>
       <c r="H125" s="169"/>
       <c r="I125" s="35"/>
       <c r="J125" s="12"/>
-      <c r="K125" s="244"/>
+      <c r="K125" s="244">
+        <v>149</v>
+      </c>
       <c r="L125" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16464,9 +16697,9 @@
       <c r="O125" s="12"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="21" t="str">
+      <c r="A126" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B126" s="152" t="str">
         <f>IF(AND(MONTH(E126)='IN-NX'!$J$5,'IN-NX'!$D$7=(D126&amp;"/"&amp;C126)),"x","")</f>
@@ -16474,13 +16707,19 @@
       </c>
       <c r="C126" s="149"/>
       <c r="D126" s="149"/>
-      <c r="E126" s="45"/>
-      <c r="F126" s="40"/>
+      <c r="E126" s="45">
+        <v>42384</v>
+      </c>
+      <c r="F126" s="220" t="s">
+        <v>122</v>
+      </c>
       <c r="G126" s="16"/>
       <c r="H126" s="169"/>
       <c r="I126" s="35"/>
       <c r="J126" s="12"/>
-      <c r="K126" s="244"/>
+      <c r="K126" s="244">
+        <v>158</v>
+      </c>
       <c r="L126" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16493,9 +16732,9 @@
       <c r="O126" s="12"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="21" t="str">
+      <c r="A127" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B127" s="152" t="str">
         <f>IF(AND(MONTH(E127)='IN-NX'!$J$5,'IN-NX'!$D$7=(D127&amp;"/"&amp;C127)),"x","")</f>
@@ -16503,13 +16742,19 @@
       </c>
       <c r="C127" s="149"/>
       <c r="D127" s="149"/>
-      <c r="E127" s="45"/>
-      <c r="F127" s="40"/>
+      <c r="E127" s="45">
+        <v>42384</v>
+      </c>
+      <c r="F127" s="220" t="s">
+        <v>273</v>
+      </c>
       <c r="G127" s="16"/>
       <c r="H127" s="169"/>
       <c r="I127" s="35"/>
       <c r="J127" s="12"/>
-      <c r="K127" s="244"/>
+      <c r="K127" s="244">
+        <v>525</v>
+      </c>
       <c r="L127" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16522,9 +16767,9 @@
       <c r="O127" s="12"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="21" t="str">
+      <c r="A128" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B128" s="152" t="str">
         <f>IF(AND(MONTH(E128)='IN-NX'!$J$5,'IN-NX'!$D$7=(D128&amp;"/"&amp;C128)),"x","")</f>
@@ -16532,13 +16777,19 @@
       </c>
       <c r="C128" s="149"/>
       <c r="D128" s="149"/>
-      <c r="E128" s="45"/>
-      <c r="F128" s="40"/>
+      <c r="E128" s="45">
+        <v>42384</v>
+      </c>
+      <c r="F128" s="40" t="s">
+        <v>276</v>
+      </c>
       <c r="G128" s="16"/>
       <c r="H128" s="169"/>
       <c r="I128" s="35"/>
       <c r="J128" s="12"/>
-      <c r="K128" s="244"/>
+      <c r="K128" s="244">
+        <v>810</v>
+      </c>
       <c r="L128" s="12">
         <f t="shared" si="9"/>
         <v>0</v>
@@ -16551,9 +16802,9 @@
       <c r="O128" s="12"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="21" t="str">
+      <c r="A129" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B129" s="152" t="str">
         <f>IF(AND(MONTH(E129)='IN-NX'!$J$5,'IN-NX'!$D$7=(D129&amp;"/"&amp;C129)),"x","")</f>
@@ -16561,8 +16812,12 @@
       </c>
       <c r="C129" s="149"/>
       <c r="D129" s="149"/>
-      <c r="E129" s="45"/>
-      <c r="F129" s="40"/>
+      <c r="E129" s="45">
+        <v>42384</v>
+      </c>
+      <c r="F129" s="220" t="s">
+        <v>135</v>
+      </c>
       <c r="G129" s="16"/>
       <c r="H129" s="169"/>
       <c r="I129" s="35"/>
@@ -16572,7 +16827,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M129" s="244"/>
+      <c r="M129" s="244">
+        <v>885</v>
+      </c>
       <c r="N129" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16580,9 +16837,9 @@
       <c r="O129" s="12"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="21" t="str">
+      <c r="A130" s="21">
         <f t="shared" si="11"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B130" s="152" t="str">
         <f>IF(AND(MONTH(E130)='IN-NX'!$J$5,'IN-NX'!$D$7=(D130&amp;"/"&amp;C130)),"x","")</f>
@@ -16590,8 +16847,12 @@
       </c>
       <c r="C130" s="149"/>
       <c r="D130" s="149"/>
-      <c r="E130" s="45"/>
-      <c r="F130" s="40"/>
+      <c r="E130" s="45">
+        <v>42384</v>
+      </c>
+      <c r="F130" s="220" t="s">
+        <v>273</v>
+      </c>
       <c r="G130" s="16"/>
       <c r="H130" s="169"/>
       <c r="I130" s="35"/>
@@ -16601,7 +16862,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M130" s="244"/>
+      <c r="M130" s="244">
+        <v>408</v>
+      </c>
       <c r="N130" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16620,7 +16883,9 @@
       <c r="C131" s="149"/>
       <c r="D131" s="149"/>
       <c r="E131" s="45"/>
-      <c r="F131" s="40"/>
+      <c r="F131" s="221" t="s">
+        <v>38</v>
+      </c>
       <c r="G131" s="16"/>
       <c r="H131" s="173"/>
       <c r="I131" s="171"/>
@@ -16630,7 +16895,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M131" s="244"/>
+      <c r="M131" s="244">
+        <v>6</v>
+      </c>
       <c r="N131" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16649,7 +16916,9 @@
       <c r="C132" s="149"/>
       <c r="D132" s="149"/>
       <c r="E132" s="45"/>
-      <c r="F132" s="40"/>
+      <c r="F132" s="221" t="s">
+        <v>207</v>
+      </c>
       <c r="G132" s="16"/>
       <c r="H132" s="169"/>
       <c r="I132" s="35"/>
@@ -16659,7 +16928,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M132" s="244"/>
+      <c r="M132" s="244">
+        <v>3.5</v>
+      </c>
       <c r="N132" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16678,7 +16949,9 @@
       <c r="C133" s="149"/>
       <c r="D133" s="149"/>
       <c r="E133" s="45"/>
-      <c r="F133" s="40"/>
+      <c r="F133" s="40" t="s">
+        <v>40</v>
+      </c>
       <c r="G133" s="16"/>
       <c r="H133" s="169"/>
       <c r="I133" s="35"/>
@@ -16688,7 +16961,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M133" s="244"/>
+      <c r="M133" s="244">
+        <v>195.5</v>
+      </c>
       <c r="N133" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16707,7 +16982,9 @@
       <c r="C134" s="149"/>
       <c r="D134" s="149"/>
       <c r="E134" s="45"/>
-      <c r="F134" s="40"/>
+      <c r="F134" s="219" t="s">
+        <v>39</v>
+      </c>
       <c r="G134" s="16"/>
       <c r="H134" s="169"/>
       <c r="I134" s="35"/>
@@ -16717,7 +16994,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M134" s="244"/>
+      <c r="M134" s="244">
+        <v>42.5</v>
+      </c>
       <c r="N134" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16736,7 +17015,9 @@
       <c r="C135" s="149"/>
       <c r="D135" s="149"/>
       <c r="E135" s="45"/>
-      <c r="F135" s="40"/>
+      <c r="F135" s="40" t="s">
+        <v>41</v>
+      </c>
       <c r="G135" s="16"/>
       <c r="H135" s="169"/>
       <c r="I135" s="35"/>
@@ -16746,7 +17027,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M135" s="244"/>
+      <c r="M135" s="244">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="N135" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16765,7 +17048,9 @@
       <c r="C136" s="149"/>
       <c r="D136" s="149"/>
       <c r="E136" s="45"/>
-      <c r="F136" s="40"/>
+      <c r="F136" s="40" t="s">
+        <v>45</v>
+      </c>
       <c r="G136" s="16"/>
       <c r="H136" s="169"/>
       <c r="I136" s="35"/>
@@ -16775,7 +17060,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M136" s="244"/>
+      <c r="M136" s="244">
+        <v>68</v>
+      </c>
       <c r="N136" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16794,7 +17081,9 @@
       <c r="C137" s="149"/>
       <c r="D137" s="149"/>
       <c r="E137" s="45"/>
-      <c r="F137" s="40"/>
+      <c r="F137" s="40" t="s">
+        <v>197</v>
+      </c>
       <c r="G137" s="16"/>
       <c r="H137" s="169"/>
       <c r="I137" s="35"/>
@@ -16804,7 +17093,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M137" s="244"/>
+      <c r="M137" s="244">
+        <v>204</v>
+      </c>
       <c r="N137" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16823,7 +17114,9 @@
       <c r="C138" s="149"/>
       <c r="D138" s="149"/>
       <c r="E138" s="45"/>
-      <c r="F138" s="40"/>
+      <c r="F138" s="40" t="s">
+        <v>283</v>
+      </c>
       <c r="G138" s="16"/>
       <c r="H138" s="169"/>
       <c r="I138" s="35"/>
@@ -16833,7 +17126,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M138" s="244"/>
+      <c r="M138" s="244">
+        <v>1.7</v>
+      </c>
       <c r="N138" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16852,7 +17147,9 @@
       <c r="C139" s="149"/>
       <c r="D139" s="149"/>
       <c r="E139" s="45"/>
-      <c r="F139" s="40"/>
+      <c r="F139" s="40" t="s">
+        <v>284</v>
+      </c>
       <c r="G139" s="16"/>
       <c r="H139" s="169"/>
       <c r="I139" s="35"/>
@@ -16862,7 +17159,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M139" s="244"/>
+      <c r="M139" s="244">
+        <v>2.5499999999999998</v>
+      </c>
       <c r="N139" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -16891,7 +17190,9 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M140" s="244"/>
+      <c r="M140" s="244">
+        <v>4.59</v>
+      </c>
       <c r="N140" s="12">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -51951,12 +52252,12 @@
       <c r="D2" s="3"/>
       <c r="E2" s="36"/>
       <c r="F2" s="5"/>
-      <c r="J2" s="320" t="s">
+      <c r="J2" s="333" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="320"/>
-      <c r="L2" s="320"/>
-      <c r="M2" s="320"/>
+      <c r="K2" s="333"/>
+      <c r="L2" s="333"/>
+      <c r="M2" s="333"/>
       <c r="N2" s="174"/>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="16.5" customHeight="1">
@@ -51967,12 +52268,12 @@
       <c r="D3" s="1"/>
       <c r="E3" s="37"/>
       <c r="F3" s="1"/>
-      <c r="J3" s="321" t="s">
+      <c r="J3" s="334" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="321"/>
-      <c r="L3" s="321"/>
-      <c r="M3" s="321"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
       <c r="N3" s="175"/>
     </row>
     <row r="4" spans="1:15" s="4" customFormat="1" ht="16.5" customHeight="1">
@@ -51981,44 +52282,44 @@
       <c r="D4" s="1"/>
       <c r="E4" s="37"/>
       <c r="F4" s="1"/>
-      <c r="J4" s="321"/>
-      <c r="K4" s="321"/>
-      <c r="L4" s="321"/>
-      <c r="M4" s="321"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="M4" s="334"/>
       <c r="N4" s="175"/>
     </row>
     <row r="5" spans="1:15" ht="18.75" customHeight="1">
-      <c r="B5" s="322" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="322"/>
-      <c r="D5" s="322"/>
-      <c r="E5" s="322"/>
-      <c r="F5" s="322"/>
-      <c r="G5" s="322"/>
-      <c r="H5" s="322"/>
-      <c r="I5" s="322"/>
-      <c r="J5" s="322"/>
-      <c r="K5" s="322"/>
-      <c r="L5" s="322"/>
-      <c r="M5" s="322"/>
+      <c r="B5" s="335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="335"/>
+      <c r="D5" s="335"/>
+      <c r="E5" s="335"/>
+      <c r="F5" s="335"/>
+      <c r="G5" s="335"/>
+      <c r="H5" s="335"/>
+      <c r="I5" s="335"/>
+      <c r="J5" s="335"/>
+      <c r="K5" s="335"/>
+      <c r="L5" s="335"/>
+      <c r="M5" s="335"/>
       <c r="N5" s="176"/>
     </row>
     <row r="6" spans="1:15" s="25" customFormat="1" ht="12.75">
-      <c r="B6" s="323" t="s">
+      <c r="B6" s="336" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="323"/>
-      <c r="D6" s="323"/>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
-      <c r="G6" s="323"/>
-      <c r="H6" s="323"/>
-      <c r="I6" s="323"/>
-      <c r="J6" s="323"/>
-      <c r="K6" s="323"/>
-      <c r="L6" s="323"/>
-      <c r="M6" s="323"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="336"/>
+      <c r="G6" s="336"/>
+      <c r="H6" s="336"/>
+      <c r="I6" s="336"/>
+      <c r="J6" s="336"/>
+      <c r="K6" s="336"/>
+      <c r="L6" s="336"/>
+      <c r="M6" s="336"/>
       <c r="N6" s="177"/>
     </row>
     <row r="7" spans="1:15">
@@ -52050,11 +52351,11 @@
       </c>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
-      <c r="J8" s="317" t="s">
+      <c r="J8" s="332" t="s">
         <v>197</v>
       </c>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
+      <c r="K8" s="332"/>
+      <c r="L8" s="332"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
     </row>
@@ -52073,35 +52374,35 @@
       <c r="N9" s="183"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A10" s="308" t="s">
+      <c r="A10" s="319" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="325" t="s">
+      <c r="B10" s="331" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="325"/>
-      <c r="D10" s="307" t="s">
+      <c r="C10" s="331"/>
+      <c r="D10" s="318" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="307" t="s">
+      <c r="E10" s="318" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="307" t="s">
+      <c r="F10" s="318" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="318" t="s">
+      <c r="G10" s="329" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="319"/>
-      <c r="I10" s="318" t="s">
+      <c r="H10" s="330"/>
+      <c r="I10" s="329" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="319"/>
-      <c r="K10" s="318" t="s">
+      <c r="J10" s="330"/>
+      <c r="K10" s="329" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="319"/>
-      <c r="M10" s="307" t="s">
+      <c r="L10" s="330"/>
+      <c r="M10" s="318" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="184"/>
@@ -52110,16 +52411,16 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="31.5" customHeight="1">
-      <c r="A11" s="308"/>
+      <c r="A11" s="319"/>
       <c r="B11" s="156" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="307"/>
-      <c r="E11" s="307"/>
-      <c r="F11" s="307"/>
+      <c r="D11" s="318"/>
+      <c r="E11" s="318"/>
+      <c r="F11" s="318"/>
       <c r="G11" s="156" t="s">
         <v>11</v>
       </c>
@@ -52138,7 +52439,7 @@
       <c r="L11" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="307"/>
+      <c r="M11" s="318"/>
       <c r="N11" s="184"/>
     </row>
     <row r="12" spans="1:15" s="7" customFormat="1">
@@ -52416,25 +52717,25 @@
       <c r="P17" s="23"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="21" t="str">
+      <c r="A18" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B18" s="112" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(_DNL1),"",OFFSET(TH!D$1,SMALL(_DNL1,ROWS($1:5)),)&amp;"/"&amp;OFFSET(TH!C$1,SMALL(_DNL1,ROWS($1:5)),))</f>
-        <v/>
-      </c>
-      <c r="C18" s="113" t="str">
+        <v>/</v>
+      </c>
+      <c r="C18" s="113">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(_DNL1),"",OFFSET(TH!E$1,SMALL(_DNL1,ROWS($1:5)),))</f>
-        <v/>
+        <v>42381</v>
       </c>
       <c r="D18" s="114" t="str">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(_DNL1),"",OFFSET(TH!F$1,SMALL(_DNL1,ROWS($1:5)),))</f>
-        <v/>
-      </c>
-      <c r="E18" s="112" t="str">
+        <v>Mè trắng</v>
+      </c>
+      <c r="E18" s="112">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(_DNL1),"",IF(OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:5)),)="1521",OFFSET(TH!I$1,SMALL(_DNL1,ROWS($1:5)),),OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:5)),)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F18" s="115">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(_DNL1),0,OFFSET(TH!J$1,SMALL(_DNL1,ROWS($1:5)),))</f>
@@ -52442,7 +52743,7 @@
       </c>
       <c r="G18" s="115">
         <f ca="1">IF(ROWS($1:5)&gt;COUNT(_DNL1),0,IF(OFFSET(TH!K$1,SMALL(_DNL1,ROWS($1:5)),)&lt;&gt;0,OFFSET(TH!K$1,SMALL(_DNL1,ROWS($1:5)),),0))</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H18" s="110">
         <f t="shared" ca="1" si="5"/>
@@ -52458,7 +52759,7 @@
       </c>
       <c r="K18" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="L18" s="110">
         <f t="shared" ca="1" si="8"/>
@@ -52468,25 +52769,25 @@
       <c r="N18" s="185"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="21" t="str">
+      <c r="A19" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B19" s="112" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(_DNL1),"",OFFSET(TH!D$1,SMALL(_DNL1,ROWS($1:6)),)&amp;"/"&amp;OFFSET(TH!C$1,SMALL(_DNL1,ROWS($1:6)),))</f>
-        <v/>
-      </c>
-      <c r="C19" s="113" t="str">
+        <v>/</v>
+      </c>
+      <c r="C19" s="113">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(_DNL1),"",OFFSET(TH!E$1,SMALL(_DNL1,ROWS($1:6)),))</f>
-        <v/>
+        <v>42381</v>
       </c>
       <c r="D19" s="114" t="str">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(_DNL1),"",OFFSET(TH!F$1,SMALL(_DNL1,ROWS($1:6)),))</f>
-        <v/>
-      </c>
-      <c r="E19" s="112" t="str">
+        <v>Mè trắng</v>
+      </c>
+      <c r="E19" s="112">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(_DNL1),"",IF(OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:6)),)="1521",OFFSET(TH!I$1,SMALL(_DNL1,ROWS($1:6)),),OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:6)),)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F19" s="115">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(_DNL1),0,OFFSET(TH!J$1,SMALL(_DNL1,ROWS($1:6)),))</f>
@@ -52502,7 +52803,7 @@
       </c>
       <c r="I19" s="115">
         <f ca="1">IF(ROWS($1:6)&gt;COUNT(_DNL1),0,IF(OFFSET(TH!M$1,SMALL(_DNL1,ROWS($1:6)),)&lt;&gt;0,OFFSET(TH!M$1,SMALL(_DNL1,ROWS($1:6)),),0))</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J19" s="110">
         <f t="shared" ca="1" si="6"/>
@@ -52510,7 +52811,7 @@
       </c>
       <c r="K19" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>510</v>
       </c>
       <c r="L19" s="110">
         <f t="shared" ca="1" si="8"/>
@@ -52520,25 +52821,25 @@
       <c r="N19" s="185"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="21" t="str">
+      <c r="A20" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B20" s="112" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(_DNL1),"",OFFSET(TH!D$1,SMALL(_DNL1,ROWS($1:7)),)&amp;"/"&amp;OFFSET(TH!C$1,SMALL(_DNL1,ROWS($1:7)),))</f>
-        <v/>
-      </c>
-      <c r="C20" s="113" t="str">
+        <v>/</v>
+      </c>
+      <c r="C20" s="113">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(_DNL1),"",OFFSET(TH!E$1,SMALL(_DNL1,ROWS($1:7)),))</f>
-        <v/>
+        <v>42382</v>
       </c>
       <c r="D20" s="114" t="str">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(_DNL1),"",OFFSET(TH!F$1,SMALL(_DNL1,ROWS($1:7)),))</f>
-        <v/>
-      </c>
-      <c r="E20" s="112" t="str">
+        <v>Mè trắng</v>
+      </c>
+      <c r="E20" s="112">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(_DNL1),"",IF(OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:7)),)="1521",OFFSET(TH!I$1,SMALL(_DNL1,ROWS($1:7)),),OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:7)),)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F20" s="115">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(_DNL1),0,OFFSET(TH!J$1,SMALL(_DNL1,ROWS($1:7)),))</f>
@@ -52554,7 +52855,7 @@
       </c>
       <c r="I20" s="115">
         <f ca="1">IF(ROWS($1:7)&gt;COUNT(_DNL1),0,IF(OFFSET(TH!M$1,SMALL(_DNL1,ROWS($1:7)),)&lt;&gt;0,OFFSET(TH!M$1,SMALL(_DNL1,ROWS($1:7)),),0))</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="J20" s="110">
         <f t="shared" ca="1" si="6"/>
@@ -52562,7 +52863,7 @@
       </c>
       <c r="K20" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="L20" s="110">
         <f t="shared" ca="1" si="8"/>
@@ -52572,25 +52873,25 @@
       <c r="N20" s="185"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="21" t="str">
+      <c r="A21" s="21">
         <f t="shared" ca="1" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="B21" s="112" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(_DNL1),"",OFFSET(TH!D$1,SMALL(_DNL1,ROWS($1:8)),)&amp;"/"&amp;OFFSET(TH!C$1,SMALL(_DNL1,ROWS($1:8)),))</f>
-        <v/>
-      </c>
-      <c r="C21" s="113" t="str">
+        <v>/</v>
+      </c>
+      <c r="C21" s="113">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(_DNL1),"",OFFSET(TH!E$1,SMALL(_DNL1,ROWS($1:8)),))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D21" s="114" t="str">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(_DNL1),"",OFFSET(TH!F$1,SMALL(_DNL1,ROWS($1:8)),))</f>
-        <v/>
-      </c>
-      <c r="E21" s="112" t="str">
+        <v>Mè trắng</v>
+      </c>
+      <c r="E21" s="112">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(_DNL1),"",IF(OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:8)),)="1521",OFFSET(TH!I$1,SMALL(_DNL1,ROWS($1:8)),),OFFSET(TH!H$1,SMALL(_DNL1,ROWS($1:8)),)))</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F21" s="115">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(_DNL1),0,OFFSET(TH!J$1,SMALL(_DNL1,ROWS($1:8)),))</f>
@@ -52606,7 +52907,7 @@
       </c>
       <c r="I21" s="115">
         <f ca="1">IF(ROWS($1:8)&gt;COUNT(_DNL1),0,IF(OFFSET(TH!M$1,SMALL(_DNL1,ROWS($1:8)),)&lt;&gt;0,OFFSET(TH!M$1,SMALL(_DNL1,ROWS($1:8)),),0))</f>
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="J21" s="110">
         <f t="shared" ca="1" si="6"/>
@@ -52614,7 +52915,7 @@
       </c>
       <c r="K21" s="110">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="L21" s="110">
         <f t="shared" ca="1" si="8"/>
@@ -55254,7 +55555,7 @@
       </c>
       <c r="G73" s="18">
         <f ca="1">SUM(G14:G72)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="H73" s="18">
         <f ca="1">SUM(H14:H72)</f>
@@ -55262,7 +55563,7 @@
       </c>
       <c r="I73" s="18">
         <f ca="1">SUM(I14:I72)</f>
-        <v>336</v>
+        <v>906</v>
       </c>
       <c r="J73" s="18">
         <f ca="1">SUM(J14:J72)</f>
@@ -55270,7 +55571,7 @@
       </c>
       <c r="K73" s="18">
         <f ca="1">K13+G73-I73</f>
-        <v>214</v>
+        <v>144</v>
       </c>
       <c r="L73" s="18">
         <f ca="1">L13+H73-J73</f>
@@ -55303,60 +55604,60 @@
       <c r="G76" s="24"/>
       <c r="H76" s="7"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="324" t="s">
+      <c r="J76" s="328" t="s">
         <v>76</v>
       </c>
-      <c r="K76" s="324"/>
-      <c r="L76" s="324"/>
-      <c r="M76" s="324"/>
+      <c r="K76" s="328"/>
+      <c r="L76" s="328"/>
+      <c r="M76" s="328"/>
       <c r="N76" s="185"/>
     </row>
     <row r="77" spans="1:14">
-      <c r="B77" s="324" t="s">
+      <c r="B77" s="328" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="324"/>
-      <c r="D77" s="324"/>
-      <c r="E77" s="324" t="s">
+      <c r="C77" s="328"/>
+      <c r="D77" s="328"/>
+      <c r="E77" s="328" t="s">
         <v>24</v>
       </c>
-      <c r="F77" s="324"/>
-      <c r="G77" s="324"/>
-      <c r="H77" s="324"/>
-      <c r="I77" s="324"/>
-      <c r="J77" s="324" t="s">
+      <c r="F77" s="328"/>
+      <c r="G77" s="328"/>
+      <c r="H77" s="328"/>
+      <c r="I77" s="328"/>
+      <c r="J77" s="328" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="324"/>
-      <c r="L77" s="324"/>
-      <c r="M77" s="324"/>
+      <c r="K77" s="328"/>
+      <c r="L77" s="328"/>
+      <c r="M77" s="328"/>
       <c r="N77" s="185"/>
     </row>
     <row r="78" spans="1:14">
-      <c r="B78" s="324" t="s">
+      <c r="B78" s="328" t="s">
         <v>26</v>
       </c>
-      <c r="C78" s="324" t="s">
+      <c r="C78" s="328" t="s">
         <v>27</v>
       </c>
-      <c r="D78" s="324" t="s">
+      <c r="D78" s="328" t="s">
         <v>26</v>
       </c>
-      <c r="E78" s="324" t="s">
+      <c r="E78" s="328" t="s">
         <v>26</v>
       </c>
-      <c r="F78" s="324"/>
-      <c r="G78" s="324"/>
-      <c r="H78" s="324" t="s">
+      <c r="F78" s="328"/>
+      <c r="G78" s="328"/>
+      <c r="H78" s="328" t="s">
         <v>28</v>
       </c>
-      <c r="I78" s="324"/>
-      <c r="J78" s="324" t="s">
+      <c r="I78" s="328"/>
+      <c r="J78" s="328" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="324"/>
-      <c r="L78" s="324"/>
-      <c r="M78" s="324"/>
+      <c r="K78" s="328"/>
+      <c r="L78" s="328"/>
+      <c r="M78" s="328"/>
       <c r="N78" s="185"/>
     </row>
     <row r="79" spans="1:14">
@@ -55370,6 +55671,14 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
     <mergeCell ref="J78:M78"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="B78:D78"/>
@@ -55383,14 +55692,6 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="B77:D77"/>
     <mergeCell ref="E77:I77"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="B14:G71 I14:M71">
@@ -55576,12 +55877,12 @@
       <c r="K8" s="57"/>
     </row>
     <row r="9" spans="1:12" ht="15">
-      <c r="A9" s="329" t="s">
+      <c r="A9" s="340" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="330"/>
-      <c r="C9" s="330"/>
-      <c r="D9" s="330"/>
+      <c r="B9" s="341"/>
+      <c r="C9" s="341"/>
+      <c r="D9" s="341"/>
       <c r="E9" s="70"/>
       <c r="F9" s="61"/>
       <c r="G9" s="71"/>
@@ -55591,28 +55892,28 @@
       <c r="K9" s="72"/>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A10" s="331" t="s">
+      <c r="A10" s="342" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="336" t="s">
+      <c r="B10" s="347" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="332" t="s">
+      <c r="C10" s="343" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="333"/>
-      <c r="E10" s="334" t="s">
+      <c r="D10" s="344"/>
+      <c r="E10" s="345" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="343" t="s">
+      <c r="F10" s="354" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="342" t="s">
+      <c r="G10" s="353" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="342"/>
-      <c r="I10" s="333"/>
-      <c r="J10" s="338" t="s">
+      <c r="H10" s="353"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="349" t="s">
         <v>100</v>
       </c>
       <c r="K10" s="178"/>
@@ -55621,16 +55922,16 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A11" s="331"/>
-      <c r="B11" s="337"/>
+      <c r="A11" s="342"/>
+      <c r="B11" s="348"/>
       <c r="C11" s="73" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="335"/>
-      <c r="F11" s="344"/>
+      <c r="E11" s="346"/>
+      <c r="F11" s="355"/>
       <c r="G11" s="74" t="s">
         <v>5</v>
       </c>
@@ -55640,7 +55941,7 @@
       <c r="I11" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="339"/>
+      <c r="J11" s="350"/>
       <c r="K11" s="178"/>
     </row>
     <row r="12" spans="1:12" ht="15">
@@ -60167,14 +60468,14 @@
       <c r="K127" s="57"/>
     </row>
     <row r="128" spans="1:11" ht="15">
-      <c r="A128" s="340" t="str">
+      <c r="A128" s="351" t="str">
         <f ca="1">IF(ISERROR(" - Ngày mở sổ: ngày "&amp;DAY(B14)&amp;" tháng "&amp;MONTH(B14)&amp;" năm "&amp;YEAR(B14))," - Ngày mở sổ: ngày 01 tháng  01 năm 2015 "," - Ngày mở sổ: ngày "&amp;DAY(B14)&amp;" tháng "&amp;MONTH(B14)&amp;" năm "&amp;YEAR(B14))</f>
         <v xml:space="preserve"> - Ngày mở sổ: ngày 01 tháng  01 năm 2015 </v>
       </c>
-      <c r="B128" s="341"/>
-      <c r="C128" s="341"/>
-      <c r="D128" s="341"/>
-      <c r="E128" s="341"/>
+      <c r="B128" s="352"/>
+      <c r="C128" s="352"/>
+      <c r="D128" s="352"/>
+      <c r="E128" s="352"/>
       <c r="F128" s="61"/>
       <c r="G128" s="71"/>
       <c r="H128" s="71"/>
@@ -60189,12 +60490,12 @@
       <c r="D129" s="97"/>
       <c r="E129" s="70"/>
       <c r="F129" s="61"/>
-      <c r="G129" s="328" t="s">
+      <c r="G129" s="339" t="s">
         <v>76</v>
       </c>
-      <c r="H129" s="328"/>
-      <c r="I129" s="328"/>
-      <c r="J129" s="328"/>
+      <c r="H129" s="339"/>
+      <c r="I129" s="339"/>
+      <c r="J129" s="339"/>
       <c r="K129" s="102"/>
     </row>
     <row r="130" spans="1:11" ht="15">
@@ -60204,16 +60505,16 @@
       </c>
       <c r="C130" s="47"/>
       <c r="D130" s="97"/>
-      <c r="E130" s="345" t="s">
+      <c r="E130" s="356" t="s">
         <v>24</v>
       </c>
-      <c r="F130" s="345"/>
+      <c r="F130" s="356"/>
       <c r="G130" s="71"/>
-      <c r="H130" s="346" t="s">
+      <c r="H130" s="357" t="s">
         <v>25</v>
       </c>
-      <c r="I130" s="346"/>
-      <c r="J130" s="346"/>
+      <c r="I130" s="357"/>
+      <c r="J130" s="357"/>
       <c r="K130" s="47"/>
     </row>
     <row r="131" spans="1:11" ht="15">
@@ -60223,16 +60524,16 @@
       </c>
       <c r="C131" s="49"/>
       <c r="D131" s="104"/>
-      <c r="E131" s="326" t="s">
+      <c r="E131" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="F131" s="326"/>
+      <c r="F131" s="337"/>
       <c r="G131" s="71"/>
-      <c r="H131" s="327" t="s">
+      <c r="H131" s="338" t="s">
         <v>28</v>
       </c>
-      <c r="I131" s="327"/>
-      <c r="J131" s="327"/>
+      <c r="I131" s="338"/>
+      <c r="J131" s="338"/>
       <c r="K131" s="49"/>
     </row>
     <row r="132" spans="1:11" ht="15">
